--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1238895.104465162</v>
+        <v>1285872.522124131</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12049526.89607446</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553706</v>
+        <v>1539357.369879108</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7058666.582547081</v>
+        <v>7378395.902047416</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>384.5816857439653</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>363.9633972035463</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -874,13 +876,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>128.8897627160346</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>216.6227214320551</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.92346489133814</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>414.9973865467654</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.259130393772548</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>277.6149107632367</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1145,7 +1147,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>8.331114118565049</v>
+        <v>68.49731278480419</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429415</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.80516704686251</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>32.81700735868883</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>98.15366458399266</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1610,16 +1612,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>173.0391036172615</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>142.9849883401688</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1844,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2005,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>25.45817320599559</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>189.7321519076233</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.07475062513829</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2950,19 +2952,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>126.0481962669387</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.378995526348206</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.04121948802891</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3320,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>124.734368464441</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>173.2846230762509</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>51.69511841098299</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3749,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>241.8179919012589</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>182.2760824806362</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
-        <v>175.6665542587261</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>271.0523013055623</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.8368445961714</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>127.1775712042722</v>
+        <v>179.4042358651336</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.5265602751927</v>
+        <v>1616.479056928882</v>
       </c>
       <c r="C2" t="n">
-        <v>521.0602110388641</v>
+        <v>1593.618730982586</v>
       </c>
       <c r="D2" t="n">
-        <v>501.8079942642684</v>
+        <v>1574.36651420799</v>
       </c>
       <c r="E2" t="n">
-        <v>479.87145845253</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F2" t="n">
-        <v>458.7876806823343</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L2" t="n">
-        <v>728.2502693850971</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>728.2502693850971</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N2" t="n">
-        <v>1374.82761136252</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O2" t="n">
-        <v>2048.629262475834</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2138.783139103334</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>2138.783139103334</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W2" t="n">
-        <v>1742.391789403681</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.671790571428</v>
+        <v>1633.583883184713</v>
       </c>
       <c r="Y2" t="n">
-        <v>925.3345205263187</v>
+        <v>1632.287017180008</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>333.5927505132859</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>333.5927505132859</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>1007.3944016266</v>
+        <v>669.8354755761781</v>
       </c>
       <c r="M3" t="n">
-        <v>1398.990771989513</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N3" t="n">
-        <v>1398.990771989513</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>1398.990771989513</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1398.990771989513</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492.4467193583589</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>320.4741562372749</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>320.4741562372749</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>320.4741562372749</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>320.4741562372749</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>154.217186531507</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>1774.348637117119</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.164188617424</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.452721225452</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="W4" t="n">
-        <v>937.6003173979655</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="X4" t="n">
-        <v>718.7894876686169</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="Y4" t="n">
-        <v>492.4467193583589</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1352.001345065968</v>
+        <v>2177.141999900945</v>
       </c>
       <c r="C5" t="n">
-        <v>925.1006150792682</v>
+        <v>1750.241269914245</v>
       </c>
       <c r="D5" t="n">
-        <v>905.8483983046725</v>
+        <v>1326.948649099245</v>
       </c>
       <c r="E5" t="n">
-        <v>479.8714584525301</v>
+        <v>907.7593697590783</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74727664193027</v>
+        <v>482.6351879484784</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K5" t="n">
-        <v>701.0259602492056</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L5" t="n">
-        <v>701.0259602492056</v>
+        <v>1905.296868083427</v>
       </c>
       <c r="M5" t="n">
-        <v>1374.82761136252</v>
+        <v>1905.296868083427</v>
       </c>
       <c r="N5" t="n">
-        <v>2048.629262475834</v>
+        <v>1905.296868083427</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>2750.44151823424</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3458.720797392167</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.438982769491</v>
       </c>
       <c r="T5" t="n">
-        <v>2501.505342633781</v>
+        <v>3810.438982769491</v>
       </c>
       <c r="U5" t="n">
-        <v>2243.150433230194</v>
+        <v>3810.438982769491</v>
       </c>
       <c r="V5" t="n">
-        <v>2243.150433230194</v>
+        <v>3810.438982769491</v>
       </c>
       <c r="W5" t="n">
-        <v>1846.759083530541</v>
+        <v>3414.047633069838</v>
       </c>
       <c r="X5" t="n">
-        <v>1435.039084698288</v>
+        <v>3002.327634237585</v>
       </c>
       <c r="Y5" t="n">
-        <v>1433.742218693582</v>
+        <v>2596.990364192475</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="K6" t="n">
-        <v>644.9335448401225</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L6" t="n">
-        <v>1189.334597738979</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="M6" t="n">
-        <v>1189.334597738979</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="N6" t="n">
-        <v>1189.334597738979</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="O6" t="n">
-        <v>1189.334597738979</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>802.803047767613</v>
+        <v>493.8335254105807</v>
       </c>
       <c r="C7" t="n">
-        <v>630.8304846465289</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="D7" t="n">
-        <v>467.5137117732996</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="E7" t="n">
-        <v>301.3055059261532</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="F7" t="n">
-        <v>298.0134550233526</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.164188617424</v>
+        <v>1237.59259410252</v>
       </c>
       <c r="W7" t="n">
-        <v>1219.311784789937</v>
+        <v>962.7401902750336</v>
       </c>
       <c r="X7" t="n">
-        <v>1219.311784789937</v>
+        <v>720.1762937208387</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.9690164796787</v>
+        <v>493.8335254105807</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>956.077549441846</v>
+        <v>1848.779802835504</v>
       </c>
       <c r="C8" t="n">
-        <v>933.2172234955502</v>
+        <v>1421.879072848805</v>
       </c>
       <c r="D8" t="n">
-        <v>913.9650067209545</v>
+        <v>998.5864520338048</v>
       </c>
       <c r="E8" t="n">
-        <v>487.9880668688121</v>
+        <v>572.6095121816624</v>
       </c>
       <c r="F8" t="n">
-        <v>62.8638850582123</v>
+        <v>147.4853303710626</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M8" t="n">
-        <v>728.2502693850971</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="N8" t="n">
-        <v>801.1857969764337</v>
+        <v>2945.750280220897</v>
       </c>
       <c r="O8" t="n">
-        <v>1474.987448089748</v>
+        <v>3206.526997738423</v>
       </c>
       <c r="P8" t="n">
-        <v>2148.789099203062</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>3693.880705940984</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.783139103334</v>
+        <v>3435.525796537396</v>
       </c>
       <c r="V8" t="n">
-        <v>1781.293724229584</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="W8" t="n">
-        <v>1384.902374529931</v>
+        <v>2681.645031963993</v>
       </c>
       <c r="X8" t="n">
-        <v>1377.222779738082</v>
+        <v>2673.965437172144</v>
       </c>
       <c r="Y8" t="n">
-        <v>971.8855096929721</v>
+        <v>2268.628167127034</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="K9" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="L9" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="M9" t="n">
-        <v>999.9477586646882</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="N9" t="n">
-        <v>1673.749409778002</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>302.375191087591</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>130.402627966507</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T10" t="n">
-        <v>2017.687984891219</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U10" t="n">
-        <v>2017.687984891219</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V10" t="n">
-        <v>2017.687984891219</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W10" t="n">
-        <v>1796.702374372538</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X10" t="n">
-        <v>1554.138477818344</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y10" t="n">
-        <v>1327.795709508086</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>810.5064888692766</v>
+        <v>2122.942672490218</v>
       </c>
       <c r="C11" t="n">
-        <v>810.5064888692766</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D11" t="n">
-        <v>387.2138680542769</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E11" t="n">
-        <v>387.2138680542769</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F11" t="n">
-        <v>387.2138680542769</v>
+        <v>815.4004377309724</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2138680542769</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K11" t="n">
-        <v>1090.853728201993</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L11" t="n">
-        <v>1257.271276480617</v>
+        <v>1905.296868083427</v>
       </c>
       <c r="M11" t="n">
-        <v>1931.072927593931</v>
+        <v>1905.296868083427</v>
       </c>
       <c r="N11" t="n">
-        <v>1931.072927593931</v>
+        <v>1905.296868083427</v>
       </c>
       <c r="O11" t="n">
-        <v>1931.072927593931</v>
+        <v>2750.44151823424</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>3458.720797392167</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3693.880705940984</v>
       </c>
       <c r="U11" t="n">
-        <v>2464.07600418556</v>
+        <v>3693.880705940984</v>
       </c>
       <c r="V11" t="n">
-        <v>2106.58658931181</v>
+        <v>3336.391291067233</v>
       </c>
       <c r="W11" t="n">
-        <v>1710.195239612157</v>
+        <v>2939.999941367581</v>
       </c>
       <c r="X11" t="n">
-        <v>1298.475240779904</v>
+        <v>2528.279942535328</v>
       </c>
       <c r="Y11" t="n">
-        <v>893.1379707347943</v>
+        <v>2122.942672490218</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J12" t="n">
-        <v>326.146107551374</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K12" t="n">
-        <v>326.146107551374</v>
+        <v>940.4785413858576</v>
       </c>
       <c r="L12" t="n">
-        <v>326.146107551374</v>
+        <v>940.4785413858576</v>
       </c>
       <c r="M12" t="n">
-        <v>999.9477586646882</v>
+        <v>940.4785413858576</v>
       </c>
       <c r="N12" t="n">
-        <v>1673.749409778002</v>
+        <v>940.4785413858576</v>
       </c>
       <c r="O12" t="n">
-        <v>1673.749409778002</v>
+        <v>1088.766728995236</v>
       </c>
       <c r="P12" t="n">
-        <v>1673.749409778002</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="Q12" t="n">
-        <v>1781.11693876759</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1008.486437976936</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>765.9225414227413</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>539.5797731124834</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1060.475384019803</v>
+        <v>1924.019879154054</v>
       </c>
       <c r="C14" t="n">
-        <v>633.5746540331036</v>
+        <v>1497.119149167355</v>
       </c>
       <c r="D14" t="n">
-        <v>458.7876806823343</v>
+        <v>1073.826528352355</v>
       </c>
       <c r="E14" t="n">
-        <v>458.7876806823343</v>
+        <v>647.8495885002125</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>222.7254066896127</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="K14" t="n">
-        <v>583.4696253673028</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="L14" t="n">
-        <v>1257.271276480617</v>
+        <v>423.5532405239172</v>
       </c>
       <c r="M14" t="n">
-        <v>1931.072927593931</v>
+        <v>1392.467794055764</v>
       </c>
       <c r="N14" t="n">
-        <v>2604.874578707245</v>
+        <v>2361.382347587611</v>
       </c>
       <c r="O14" t="n">
-        <v>2604.874578707245</v>
+        <v>3206.526997738423</v>
       </c>
       <c r="P14" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="T14" t="n">
-        <v>2501.505342633781</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="U14" t="n">
-        <v>2243.150433230194</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="V14" t="n">
-        <v>1885.661018356443</v>
+        <v>3557.3168620226</v>
       </c>
       <c r="W14" t="n">
-        <v>1885.661018356443</v>
+        <v>3160.925512322947</v>
       </c>
       <c r="X14" t="n">
-        <v>1885.661018356443</v>
+        <v>2749.205513490694</v>
       </c>
       <c r="Y14" t="n">
-        <v>1480.323748311333</v>
+        <v>2343.868243445585</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J15" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="K15" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="L15" t="n">
-        <v>999.9477586646882</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="M15" t="n">
-        <v>999.9477586646882</v>
+        <v>918.06920258659</v>
       </c>
       <c r="N15" t="n">
-        <v>999.9477586646882</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.315287654275</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P15" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.861645684911</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U16" t="n">
-        <v>2234.861645684911</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
     <row r="17">
@@ -5513,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>875.4305977324519</v>
+        <v>3375.975369221654</v>
       </c>
       <c r="C19" t="n">
-        <v>703.4580346113679</v>
+        <v>3204.00280610057</v>
       </c>
       <c r="D19" t="n">
-        <v>540.1412617381386</v>
+        <v>3204.00280610057</v>
       </c>
       <c r="E19" t="n">
-        <v>373.9330558909921</v>
+        <v>3204.00280610057</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0712816655526</v>
+        <v>3204.00280610057</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="U19" t="n">
-        <v>2091.067102528428</v>
+        <v>4591.611874017631</v>
       </c>
       <c r="V19" t="n">
-        <v>1809.355635136457</v>
+        <v>4309.900406625659</v>
       </c>
       <c r="W19" t="n">
-        <v>1534.50323130897</v>
+        <v>4035.048002798173</v>
       </c>
       <c r="X19" t="n">
-        <v>1291.939334754775</v>
+        <v>3792.484106243978</v>
       </c>
       <c r="Y19" t="n">
-        <v>1065.596566444518</v>
+        <v>3566.14133793372</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3931.435236455013</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4639.71451561294</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>5095.799995117123</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3578.14552899051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3578.14552899051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3578.14552899051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>3578.14552899051</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>4650.990193428648</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>3278.556980224821</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>5017.717281294594</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>4494.193485020798</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>4212.482017628827</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>3937.62961380134</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>3695.065717247145</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>3468.722948936887</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="M24" t="n">
-        <v>105.4776804749704</v>
+        <v>4952.919504255303</v>
       </c>
       <c r="N24" t="n">
-        <v>1194.79262694784</v>
+        <v>4952.919504255303</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>4952.919504255303</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>4952.919504255303</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>3278.556980224821</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>5017.717281294594</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>4494.193485020798</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>4212.482017628827</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.306816359498</v>
+        <v>3937.62961380134</v>
       </c>
       <c r="X25" t="n">
-        <v>1260.306816359498</v>
+        <v>3695.065717247145</v>
       </c>
       <c r="Y25" t="n">
-        <v>1260.306816359498</v>
+        <v>3468.722948936887</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6242,19 +6244,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>855.0038060102931</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>1910.990343986338</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.4203922683193</v>
+        <v>3278.556980224821</v>
       </c>
       <c r="C28" t="n">
-        <v>201.4478291472353</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>5017.717281294594</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>4494.193485020798</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>4212.482017628827</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>3937.62961380134</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>3695.065717247145</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>3468.722948936887</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G31" t="n">
         <v>246.0989818976742</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.640305074347</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6710,25 +6712,25 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6780,10 +6782,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
         <v>821.6753975134684</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2277.623599921958</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2107.488552441093</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1864.149204666993</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1583.964756167297</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1302.253288775326</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1027.400884947839</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>784.8369883936441</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.4942200833862</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6953,19 +6955,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>3270.011978872611</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>3098.039415751527</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W37" t="n">
-        <v>1550.684777446425</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X37" t="n">
-        <v>1550.684777446425</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U40" t="n">
-        <v>4834.951221791732</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V40" t="n">
-        <v>4834.951221791732</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W40" t="n">
-        <v>4676.976398979054</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.41250242486</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114601</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1755.743090736225</v>
+        <v>1598.727014071829</v>
       </c>
       <c r="C41" t="n">
-        <v>1328.842360749525</v>
+        <v>1171.826284085129</v>
       </c>
       <c r="D41" t="n">
-        <v>905.5497399345252</v>
+        <v>748.533663270129</v>
       </c>
       <c r="E41" t="n">
-        <v>479.5728000823827</v>
+        <v>322.5567234179865</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="L41" t="n">
-        <v>1402.051920498411</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="N41" t="n">
-        <v>2075.853571611725</v>
+        <v>2613.576147241355</v>
       </c>
       <c r="O41" t="n">
-        <v>2722.430913589148</v>
+        <v>3458.720797392167</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3458.720797392167</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.438982769491</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.946364431343</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="U41" t="n">
-        <v>2175.591455027755</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="V41" t="n">
-        <v>2175.591455027755</v>
+        <v>3232.023996940374</v>
       </c>
       <c r="W41" t="n">
-        <v>2175.591455027755</v>
+        <v>2835.632647240721</v>
       </c>
       <c r="X41" t="n">
-        <v>2175.591455027755</v>
+        <v>2423.912648408468</v>
       </c>
       <c r="Y41" t="n">
-        <v>2175.591455027755</v>
+        <v>2018.575378363359</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I42" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J42" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="K42" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="L42" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="M42" t="n">
-        <v>643.169810791496</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="N42" t="n">
-        <v>1316.97146190481</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O42" t="n">
-        <v>1316.97146190481</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P42" t="n">
-        <v>1316.97146190481</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q42" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.5997284915359</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C43" t="n">
-        <v>389.6271653704518</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D43" t="n">
-        <v>226.3103924972226</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E43" t="n">
-        <v>226.3103924972226</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T43" t="n">
-        <v>2057.420681787208</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U43" t="n">
-        <v>1777.236233287513</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V43" t="n">
-        <v>1495.524765895541</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.672362068054</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X43" t="n">
-        <v>978.1084655138595</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.7656972036016</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.7412390867827</v>
+        <v>2481.798038938885</v>
       </c>
       <c r="C44" t="n">
-        <v>477.7412390867827</v>
+        <v>2054.897308952186</v>
       </c>
       <c r="D44" t="n">
-        <v>54.44861827178296</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="E44" t="n">
-        <v>54.44861827178296</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>780.5035664744436</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>376.1645040638922</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="M44" t="n">
-        <v>1257.271276480617</v>
+        <v>2692.344034664549</v>
       </c>
       <c r="N44" t="n">
-        <v>1257.271276480617</v>
+        <v>3661.258588196396</v>
       </c>
       <c r="O44" t="n">
-        <v>1931.072927593931</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="V44" t="n">
-        <v>1781.293724229584</v>
+        <v>3557.3168620226</v>
       </c>
       <c r="W44" t="n">
-        <v>1384.902374529931</v>
+        <v>3160.925512322947</v>
       </c>
       <c r="X44" t="n">
-        <v>973.1823756976778</v>
+        <v>3160.925512322947</v>
       </c>
       <c r="Y44" t="n">
-        <v>897.5896033783127</v>
+        <v>2755.588242277837</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I45" t="n">
-        <v>61.8952612336948</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J45" t="n">
-        <v>61.8952612336948</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K45" t="n">
-        <v>652.3801878020344</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="L45" t="n">
-        <v>1189.334597738979</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.334597738979</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="N45" t="n">
-        <v>1189.334597738979</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.6293872400134</v>
+        <v>410.7613010908414</v>
       </c>
       <c r="C46" t="n">
-        <v>220.6568241189294</v>
+        <v>410.7613010908414</v>
       </c>
       <c r="D46" t="n">
-        <v>220.6568241189294</v>
+        <v>410.7613010908414</v>
       </c>
       <c r="E46" t="n">
-        <v>54.44861827178296</v>
+        <v>244.5530952436949</v>
       </c>
       <c r="F46" t="n">
-        <v>54.44861827178296</v>
+        <v>244.5530952436949</v>
       </c>
       <c r="G46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792701</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.687984891219</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T46" t="n">
-        <v>1774.348637117119</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U46" t="n">
-        <v>1494.164188617424</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V46" t="n">
-        <v>1212.452721225452</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W46" t="n">
-        <v>937.6003173979655</v>
+        <v>1008.486437976936</v>
       </c>
       <c r="X46" t="n">
-        <v>809.138124262337</v>
+        <v>827.2700381131649</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.795355952079</v>
+        <v>600.9272698029069</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>690.3880490742669</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>379.7269667620471</v>
       </c>
       <c r="M3" t="n">
-        <v>418.648669767796</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>322.606907017564</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>794.765553294346</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8298,7 +8300,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>572.4151401474176</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8310,7 +8312,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N8" t="n">
-        <v>110.9518729267052</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>300.8017851313028</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8538,16 +8540,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>1001.798349736416</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>214.4717271710005</v>
+        <v>147.9954856920859</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>206.4105760473949</v>
+        <v>794.765553294346</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>172.957937812503</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>131.1990877734101</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>203.8631344095814</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>387.0566030245323</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>871.3524138948159</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O15" t="n">
-        <v>131.6239392066537</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>124.3756766890872</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>124.3756766890872</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>54.56363491934598</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N21" t="n">
-        <v>1105.024507443984</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9717,25 +9719,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>26.3038179559056</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>186.60175145678</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>186.3697998820327</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>659.3662058264945</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9975,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10358,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314398</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10430,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>152.7047407943309</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,16 +10825,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10841,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>680.4517648064711</v>
       </c>
       <c r="O41" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11145,10 +11147,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>610.2427901666728</v>
+        <v>1001.798349736416</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>869.5986615960295</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,10 +11159,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>571.79591653127</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>293.4997358206246</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>564.8932785697289</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>703.7796181195092</v>
+        <v>852.2551465529501</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.8447136017522</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>389.814715328144</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23425,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>71.98949189919252</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>246.0205909895882</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>257.310683446277</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23546,19 +23548,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>139.1362268027146</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>87.65045210707541</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.1895583998067</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>63.52994056050431</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24649,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>44.20464122293447</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25084,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>165.764160956837</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.52700769166967</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>63.52994056050399</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.79471755090449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>118.5577190788902</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>179.0549480912348</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>36.44023276517697</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25834,10 +25836,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
-        <v>65.23940003763292</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>144.5975793430524</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>326.4470527484872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26035,7 +26037,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>112.9606863843808</v>
+        <v>60.73402172351928</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>679411.7949274674</v>
+        <v>678431.7314495587</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>679411.7949274674</v>
+        <v>681760.6539512266</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>679411.7949274674</v>
+        <v>681760.6539512266</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443436.5370583379</v>
+        <v>551682.7656246759</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443436.5370583378</v>
+        <v>551682.7656246759</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660651.0770060485</v>
+        <v>660651.0770060484</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660651.0770060485</v>
+        <v>660651.0770060484</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660651.0770060484</v>
+        <v>660651.0770060483</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660651.0770060484</v>
+        <v>660651.0770060485</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660651.0770060485</v>
+        <v>660651.0770060484</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>443436.5370583379</v>
+        <v>551682.7656246759</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443436.5370583378</v>
+        <v>551682.7656246759</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>349465.6008066977</v>
+      </c>
+      <c r="C2" t="n">
+        <v>349465.600806698</v>
+      </c>
+      <c r="D2" t="n">
         <v>349465.6008066979</v>
       </c>
-      <c r="C2" t="n">
-        <v>349465.6008066979</v>
-      </c>
-      <c r="D2" t="n">
-        <v>349465.6008066976</v>
-      </c>
       <c r="E2" t="n">
-        <v>226348.0749619346</v>
+        <v>281598.8764624104</v>
       </c>
       <c r="F2" t="n">
-        <v>226348.0749619345</v>
+        <v>281598.8764624102</v>
       </c>
       <c r="G2" t="n">
-        <v>337218.2418824686</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="H2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="I2" t="n">
+        <v>337218.2418824685</v>
+      </c>
+      <c r="J2" t="n">
+        <v>337218.2418824686</v>
+      </c>
+      <c r="K2" t="n">
+        <v>337218.2418824685</v>
+      </c>
+      <c r="L2" t="n">
+        <v>337218.2418824685</v>
+      </c>
+      <c r="M2" t="n">
         <v>337218.2418824684</v>
       </c>
-      <c r="J2" t="n">
-        <v>337218.2418824685</v>
-      </c>
-      <c r="K2" t="n">
-        <v>337218.2418824686</v>
-      </c>
-      <c r="L2" t="n">
-        <v>337218.2418824684</v>
-      </c>
-      <c r="M2" t="n">
-        <v>337218.2418824686</v>
-      </c>
       <c r="N2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="O2" t="n">
-        <v>226348.0749619346</v>
+        <v>281598.8764624102</v>
       </c>
       <c r="P2" t="n">
-        <v>226348.0749619346</v>
+        <v>281598.8764624103</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>136488.8862029677</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>82248.07044717236</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>108731.2256621308</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127239.0340695812</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
-        <v>127239.0340695812</v>
+        <v>77169.92730939163</v>
       </c>
       <c r="D4" t="n">
-        <v>127239.0340695812</v>
+        <v>77169.9273093916</v>
       </c>
       <c r="E4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.7743387567</v>
       </c>
       <c r="F4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.7743387567</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792743</v>
@@ -26451,13 +26453,13 @@
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.77433875671</v>
       </c>
       <c r="P4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.77433875671</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.65540882453</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.65540882453</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882453</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882453</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882453</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882453</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80869.28691312236</v>
+        <v>-52515.79621448176</v>
       </c>
       <c r="C6" t="n">
-        <v>147218.0168505617</v>
+        <v>42674.1318855141</v>
       </c>
       <c r="D6" t="n">
-        <v>147218.0168505614</v>
+        <v>179163.0180884817</v>
       </c>
       <c r="E6" t="n">
-        <v>174847.1413018077</v>
+        <v>209484.0467148292</v>
       </c>
       <c r="F6" t="n">
-        <v>174847.1413018076</v>
+        <v>209484.046714829</v>
       </c>
       <c r="G6" t="n">
-        <v>80400.88522592546</v>
+        <v>162103.9355889389</v>
       </c>
       <c r="H6" t="n">
         <v>244352.0060361114</v>
       </c>
       <c r="I6" t="n">
+        <v>244352.0060361114</v>
+      </c>
+      <c r="J6" t="n">
+        <v>98818.33610129499</v>
+      </c>
+      <c r="K6" t="n">
+        <v>135620.7803739806</v>
+      </c>
+      <c r="L6" t="n">
+        <v>244352.0060361114</v>
+      </c>
+      <c r="M6" t="n">
         <v>244352.0060361113</v>
       </c>
-      <c r="J6" t="n">
-        <v>66275.07754733162</v>
-      </c>
-      <c r="K6" t="n">
-        <v>244352.0060361115</v>
-      </c>
-      <c r="L6" t="n">
-        <v>244352.0060361113</v>
-      </c>
-      <c r="M6" t="n">
-        <v>244352.0060361115</v>
-      </c>
       <c r="N6" t="n">
-        <v>244352.0060361114</v>
+        <v>244352.0060361112</v>
       </c>
       <c r="O6" t="n">
-        <v>174847.1413018077</v>
+        <v>209484.046714829</v>
       </c>
       <c r="P6" t="n">
-        <v>174847.1413018077</v>
+        <v>209484.0467148291</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240876</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>422.4737561084936</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.082348348769</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084937</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084936</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.082348348769</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>38.05003694286756</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>57.75377325007469</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>150.0045900020168</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>23.51553615659782</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>334.7264157572766</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6.719783906855582</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>166.8840260894126</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>1.279441954814672</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>391.9645576678808</v>
+        <v>331.7983590016416</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>653.1084262398208</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>357.2118800478176</v>
       </c>
       <c r="M3" t="n">
-        <v>395.551889255468</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>286.8423062227546</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>756.4535108617231</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>549.900053433188</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="N8" t="n">
-        <v>73.6722500922592</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>263.4108257752787</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>191.2998374487783</v>
+        <v>124.8235959698636</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>168.098533614772</v>
+        <v>756.4535108617231</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>149.7860480902807</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.4520494844316</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>168.0985336147721</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>348.7445605919093</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>848.2556333824879</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="O15" t="n">
-        <v>108.4520494844315</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>86.8003148788559</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>86.8003148788559</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>19.53098502454951</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N21" t="n">
-        <v>1083.681479230443</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>3.207037443577619</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>163.8547131678015</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -37078,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969938</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37561,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>643.1721419720251</v>
       </c>
       <c r="O41" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>587.1460096543448</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>848.2556333824879</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>534.3646536318382</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>978.7015692240876</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>256.1087764646005</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>542.3781918554993</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>680.607728397287</v>
+        <v>829.0832568307279</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1285872.522124131</v>
+        <v>1284961.626575932</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1539357.369879108</v>
+        <v>1539357.36987911</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>363.9633972035463</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>14.94721823158767</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -876,7 +876,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>128.8897627160346</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>164.7047943182453</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>414.9973865467654</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -961,7 +961,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>400.883014937074</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>58.33552926585362</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1113,7 +1113,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>277.6149107632367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>352.0472877224238</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>68.49731278480419</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1198,7 +1198,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429415</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>32.81700735868883</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1384,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>142.9849883401675</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>98.15366458399266</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1612,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1621,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>142.9849883401688</v>
+        <v>11.38362789676009</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>79.35347485062486</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2007,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>25.45817320599559</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>88.2185662906153</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>126.0481962669387</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>53.3189661508361</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.734368464441</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3480,13 +3480,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>30.91189003345383</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>51.69511841098299</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3748,16 +3748,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>285.1666729152524</v>
       </c>
       <c r="F41" t="n">
-        <v>241.8179919012589</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>271.0523013055623</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>140.0781761049335</v>
       </c>
     </row>
     <row r="45">
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>98.26334559068067</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>179.4042358651336</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1616.479056928882</v>
+        <v>972.9074190595572</v>
       </c>
       <c r="C2" t="n">
-        <v>1593.618730982586</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D2" t="n">
-        <v>1574.36651420799</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>2224.911252462376</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1641.263477976562</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="W2" t="n">
-        <v>1641.263477976562</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="X2" t="n">
-        <v>1633.583883184713</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.287017180008</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>669.8354755761781</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N3" t="n">
-        <v>1220.501010560616</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4485,55 +4485,55 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1354.022115883742</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W4" t="n">
-        <v>1354.022115883742</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="X4" t="n">
-        <v>1354.022115883742</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.679347573484</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2177.141999900945</v>
+        <v>2183.92966041292</v>
       </c>
       <c r="C5" t="n">
-        <v>1750.241269914245</v>
+        <v>1757.02893042622</v>
       </c>
       <c r="D5" t="n">
-        <v>1326.948649099245</v>
+        <v>1333.736309611221</v>
       </c>
       <c r="E5" t="n">
-        <v>907.7593697590783</v>
+        <v>907.7593697590781</v>
       </c>
       <c r="F5" t="n">
-        <v>482.6351879484784</v>
+        <v>482.6351879484783</v>
       </c>
       <c r="G5" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H5" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I5" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J5" t="n">
         <v>440.8995843548225</v>
       </c>
       <c r="K5" t="n">
-        <v>1156.407892330322</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="L5" t="n">
-        <v>1905.296868083427</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="M5" t="n">
-        <v>1905.296868083427</v>
+        <v>1409.814137886669</v>
       </c>
       <c r="N5" t="n">
-        <v>1905.296868083427</v>
+        <v>2378.728691418515</v>
       </c>
       <c r="O5" t="n">
-        <v>2750.44151823424</v>
+        <v>2632.885183352335</v>
       </c>
       <c r="P5" t="n">
-        <v>3458.720797392167</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="Q5" t="n">
-        <v>3914.80627689635</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R5" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S5" t="n">
-        <v>3810.438982769491</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T5" t="n">
-        <v>3810.438982769491</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="U5" t="n">
-        <v>3810.438982769491</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="V5" t="n">
-        <v>3810.438982769491</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="W5" t="n">
-        <v>3414.047633069838</v>
+        <v>3414.047633069837</v>
       </c>
       <c r="X5" t="n">
-        <v>3002.327634237585</v>
+        <v>3009.11529474956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2596.990364192475</v>
+        <v>2603.77802470445</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>131.6722187756174</v>
       </c>
       <c r="H6" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I6" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J6" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K6" t="n">
-        <v>668.7810521062665</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L6" t="n">
-        <v>1170.786039079939</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M6" t="n">
-        <v>1170.786039079939</v>
+        <v>997.5024781069651</v>
       </c>
       <c r="N6" t="n">
-        <v>1170.786039079939</v>
+        <v>997.5024781069651</v>
       </c>
       <c r="O6" t="n">
-        <v>1170.786039079939</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P6" t="n">
         <v>1886.983756118437</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>493.8335254105807</v>
+        <v>472.510238568456</v>
       </c>
       <c r="C7" t="n">
-        <v>321.8609622894967</v>
+        <v>300.5376754473721</v>
       </c>
       <c r="D7" t="n">
-        <v>321.8609622894967</v>
+        <v>137.2209025741428</v>
       </c>
       <c r="E7" t="n">
-        <v>321.8609622894967</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="F7" t="n">
-        <v>321.8609622894967</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G7" t="n">
-        <v>321.8609622894967</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H7" t="n">
-        <v>178.064693797651</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I7" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J7" t="n">
         <v>135.787453762085</v>
@@ -4752,25 +4752,25 @@
         <v>2211.670539638229</v>
       </c>
       <c r="S7" t="n">
-        <v>2041.535492157363</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="T7" t="n">
-        <v>1798.196144383263</v>
+        <v>1968.331191864128</v>
       </c>
       <c r="U7" t="n">
-        <v>1518.011695883568</v>
+        <v>1688.146743364433</v>
       </c>
       <c r="V7" t="n">
-        <v>1237.59259410252</v>
+        <v>1406.435275972462</v>
       </c>
       <c r="W7" t="n">
-        <v>962.7401902750336</v>
+        <v>1131.582872144975</v>
       </c>
       <c r="X7" t="n">
-        <v>720.1762937208387</v>
+        <v>889.0189755907796</v>
       </c>
       <c r="Y7" t="n">
-        <v>493.8335254105807</v>
+        <v>662.6762072805217</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1848.779802835504</v>
+        <v>1340.37210466824</v>
       </c>
       <c r="C8" t="n">
-        <v>1421.879072848805</v>
+        <v>1317.511778721944</v>
       </c>
       <c r="D8" t="n">
-        <v>998.5864520338048</v>
+        <v>1298.259561947348</v>
       </c>
       <c r="E8" t="n">
-        <v>572.6095121816624</v>
+        <v>942.656241015607</v>
       </c>
       <c r="F8" t="n">
-        <v>147.4853303710626</v>
+        <v>517.5320592050072</v>
       </c>
       <c r="G8" t="n">
-        <v>78.29612553792701</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="H8" t="n">
-        <v>78.29612553792701</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I8" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J8" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K8" t="n">
-        <v>78.29612553792701</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L8" t="n">
-        <v>1007.921173157204</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="M8" t="n">
-        <v>1976.83572668905</v>
+        <v>2692.344034664549</v>
       </c>
       <c r="N8" t="n">
-        <v>2945.750280220897</v>
+        <v>2692.344034664549</v>
       </c>
       <c r="O8" t="n">
-        <v>3206.526997738423</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P8" t="n">
-        <v>3914.80627689635</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q8" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R8" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S8" t="n">
-        <v>3914.80627689635</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T8" t="n">
-        <v>3693.880705940984</v>
+        <v>3589.513411814123</v>
       </c>
       <c r="U8" t="n">
-        <v>3435.525796537396</v>
+        <v>3331.158502410535</v>
       </c>
       <c r="V8" t="n">
-        <v>3078.036381663645</v>
+        <v>2973.669087536785</v>
       </c>
       <c r="W8" t="n">
-        <v>2681.645031963993</v>
+        <v>2577.277737837132</v>
       </c>
       <c r="X8" t="n">
-        <v>2673.965437172144</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.628167127034</v>
+        <v>1760.22046895977</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>131.6722187756174</v>
       </c>
       <c r="H9" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I9" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J9" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K9" t="n">
-        <v>78.29612553792701</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L9" t="n">
-        <v>78.29612553792701</v>
+        <v>918.0692025865903</v>
       </c>
       <c r="M9" t="n">
-        <v>1047.210679069774</v>
+        <v>918.0692025865903</v>
       </c>
       <c r="N9" t="n">
-        <v>1047.210679069774</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O9" t="n">
-        <v>1170.786039079939</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P9" t="n">
         <v>1886.983756118437</v>
@@ -4944,22 +4944,22 @@
         <v>130.402627966507</v>
       </c>
       <c r="D10" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="E10" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="F10" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G10" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H10" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I10" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J10" t="n">
         <v>135.787453762085</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2122.942672490218</v>
+        <v>1779.590598002369</v>
       </c>
       <c r="C11" t="n">
-        <v>2089.794180208714</v>
+        <v>1352.689868015669</v>
       </c>
       <c r="D11" t="n">
-        <v>1666.501559393715</v>
+        <v>929.3972472006692</v>
       </c>
       <c r="E11" t="n">
-        <v>1240.524619541572</v>
+        <v>503.4203073485268</v>
       </c>
       <c r="F11" t="n">
-        <v>815.4004377309724</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G11" t="n">
-        <v>411.061375320421</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H11" t="n">
-        <v>113.1929967944558</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I11" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J11" t="n">
-        <v>440.8995843548225</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K11" t="n">
-        <v>1156.407892330322</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L11" t="n">
-        <v>1905.296868083427</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="M11" t="n">
-        <v>1905.296868083427</v>
+        <v>2692.344034664549</v>
       </c>
       <c r="N11" t="n">
-        <v>1905.296868083427</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="O11" t="n">
-        <v>2750.44151823424</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P11" t="n">
-        <v>3458.720797392167</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q11" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R11" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S11" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T11" t="n">
-        <v>3693.880705940984</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U11" t="n">
-        <v>3693.880705940984</v>
+        <v>3770.376995744665</v>
       </c>
       <c r="V11" t="n">
-        <v>3336.391291067233</v>
+        <v>3412.887580870914</v>
       </c>
       <c r="W11" t="n">
-        <v>2939.999941367581</v>
+        <v>3016.496231171261</v>
       </c>
       <c r="X11" t="n">
-        <v>2528.279942535328</v>
+        <v>2604.776232339008</v>
       </c>
       <c r="Y11" t="n">
-        <v>2122.942672490218</v>
+        <v>2199.438962293899</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>131.6722187756174</v>
       </c>
       <c r="H12" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I12" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J12" t="n">
         <v>349.9936148175181</v>
       </c>
       <c r="K12" t="n">
-        <v>940.4785413858576</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="L12" t="n">
-        <v>940.4785413858576</v>
+        <v>918.0692025865903</v>
       </c>
       <c r="M12" t="n">
-        <v>940.4785413858576</v>
+        <v>918.0692025865903</v>
       </c>
       <c r="N12" t="n">
-        <v>940.4785413858576</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O12" t="n">
-        <v>1088.766728995236</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P12" t="n">
-        <v>1804.964446033734</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q12" t="n">
-        <v>1804.964446033734</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R12" t="n">
         <v>1886.983756118437</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.4138044004177</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C13" t="n">
-        <v>177.4412412793338</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D13" t="n">
-        <v>177.4412412793338</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E13" t="n">
-        <v>177.4412412793338</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F13" t="n">
-        <v>78.29612553792701</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G13" t="n">
-        <v>78.29612553792701</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H13" t="n">
-        <v>78.29612553792701</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I13" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J13" t="n">
         <v>135.787453762085</v>
@@ -5226,25 +5226,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S13" t="n">
-        <v>2088.57410547019</v>
+        <v>2102.261349030653</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.23475769609</v>
+        <v>2102.261349030653</v>
       </c>
       <c r="U13" t="n">
-        <v>1565.050309196394</v>
+        <v>2102.261349030653</v>
       </c>
       <c r="V13" t="n">
-        <v>1283.338841804423</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="W13" t="n">
-        <v>1008.486437976936</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X13" t="n">
-        <v>765.9225414227413</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y13" t="n">
-        <v>539.5797731124834</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1924.019879154054</v>
+        <v>1665.664969750466</v>
       </c>
       <c r="C14" t="n">
-        <v>1497.119149167355</v>
+        <v>1238.764239763766</v>
       </c>
       <c r="D14" t="n">
-        <v>1073.826528352355</v>
+        <v>1238.764239763766</v>
       </c>
       <c r="E14" t="n">
-        <v>647.8495885002125</v>
+        <v>812.7872999116233</v>
       </c>
       <c r="F14" t="n">
-        <v>222.7254066896127</v>
+        <v>387.6631181010235</v>
       </c>
       <c r="G14" t="n">
-        <v>78.29612553792701</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H14" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I14" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J14" t="n">
-        <v>78.29612553792701</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K14" t="n">
-        <v>78.29612553792701</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L14" t="n">
-        <v>423.5532405239172</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M14" t="n">
-        <v>1392.467794055764</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="N14" t="n">
-        <v>2361.382347587611</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="O14" t="n">
-        <v>3206.526997738423</v>
+        <v>2931.17759010041</v>
       </c>
       <c r="P14" t="n">
-        <v>3914.80627689635</v>
+        <v>3639.456869258338</v>
       </c>
       <c r="Q14" t="n">
-        <v>3914.80627689635</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R14" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S14" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T14" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U14" t="n">
-        <v>3914.80627689635</v>
+        <v>3656.451367492761</v>
       </c>
       <c r="V14" t="n">
-        <v>3557.3168620226</v>
+        <v>3298.961952619011</v>
       </c>
       <c r="W14" t="n">
-        <v>3160.925512322947</v>
+        <v>2902.570602919358</v>
       </c>
       <c r="X14" t="n">
-        <v>2749.205513490694</v>
+        <v>2490.850604087105</v>
       </c>
       <c r="Y14" t="n">
-        <v>2343.868243445585</v>
+        <v>2085.513334041996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>131.6722187756174</v>
       </c>
       <c r="H15" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I15" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J15" t="n">
-        <v>78.29612553792701</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K15" t="n">
-        <v>78.29612553792701</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="L15" t="n">
-        <v>78.29612553792701</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="M15" t="n">
-        <v>918.06920258659</v>
+        <v>997.5024781069651</v>
       </c>
       <c r="N15" t="n">
-        <v>1886.983756118437</v>
+        <v>997.5024781069651</v>
       </c>
       <c r="O15" t="n">
         <v>1886.983756118437</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>422.1304628844506</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C16" t="n">
-        <v>250.1578997633666</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D16" t="n">
-        <v>250.1578997633666</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E16" t="n">
-        <v>250.1578997633666</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F16" t="n">
-        <v>78.29612553792701</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G16" t="n">
-        <v>78.29612553792701</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H16" t="n">
-        <v>78.29612553792701</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I16" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J16" t="n">
         <v>135.787453762085</v>
@@ -5460,28 +5460,28 @@
         <v>2258.709152951055</v>
       </c>
       <c r="R16" t="n">
-        <v>2258.709152951055</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S16" t="n">
-        <v>2161.290763954223</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T16" t="n">
-        <v>1917.951416180123</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U16" t="n">
-        <v>1637.766967680427</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="V16" t="n">
-        <v>1356.055500288456</v>
+        <v>1516.484676991292</v>
       </c>
       <c r="W16" t="n">
-        <v>1081.203096460969</v>
+        <v>1241.632273163805</v>
       </c>
       <c r="X16" t="n">
-        <v>838.6391999067741</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="Y16" t="n">
-        <v>612.2964315965162</v>
+        <v>1161.477248062164</v>
       </c>
     </row>
     <row r="17">
@@ -5515,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>971.931772215671</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O18" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3375.975369221654</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>3204.00280610057</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>3204.00280610057</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>3204.00280610057</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>3204.00280610057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>3178.287479629867</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.491211138022</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>5115.135670291426</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>4871.796322517326</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>4591.611874017631</v>
+        <v>1883.70404034436</v>
       </c>
       <c r="V19" t="n">
-        <v>4309.900406625659</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="W19" t="n">
-        <v>4035.048002798173</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X19" t="n">
-        <v>3792.484106243978</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>3566.14133793372</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5840,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3278.556980224821</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C22" t="n">
-        <v>3106.584417103737</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D22" t="n">
-        <v>3106.584417103737</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E22" t="n">
-        <v>3106.584417103737</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878298</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878298</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5017.717281294594</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4774.377933520494</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4494.193485020798</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4212.482017628827</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>3937.62961380134</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X22" t="n">
-        <v>3695.065717247145</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y22" t="n">
-        <v>3468.722948936887</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5998,28 +5998,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>3896.932966279257</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L24" t="n">
-        <v>3896.932966279257</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>4952.919504255303</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>4952.919504255303</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>4952.919504255303</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>4952.919504255303</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3278.556980224821</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5017.717281294594</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4774.377933520494</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4494.193485020798</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4212.482017628827</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>3937.62961380134</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>3695.065717247145</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3468.722948936887</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6305,28 +6305,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>739.6560874287652</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3278.556980224821</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5017.717281294594</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4774.377933520494</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4494.193485020798</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4212.482017628827</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>3937.62961380134</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3695.065717247145</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3468.722948936887</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6469,31 +6469,31 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.856391133499</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>516.5477476675582</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C34" t="n">
-        <v>516.5477476675582</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D34" t="n">
-        <v>516.5477476675582</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="E34" t="n">
-        <v>516.5477476675582</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>255.9288232320537</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,28 +6946,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3270.011978872611</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="C37" t="n">
-        <v>3098.039415751527</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D37" t="n">
-        <v>2934.722642878298</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>2934.722642878298</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878298</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878298</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810561</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4701.661275036461</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4421.476826536766</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V37" t="n">
-        <v>4139.765359144794</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W37" t="n">
-        <v>3864.912955317307</v>
+        <v>1509.267133512271</v>
       </c>
       <c r="X37" t="n">
-        <v>3622.349058763113</v>
+        <v>1266.703236958076</v>
       </c>
       <c r="Y37" t="n">
-        <v>3396.006290452855</v>
+        <v>1040.360468647818</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7186,25 +7186,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1598.727014071829</v>
+        <v>2343.868243445584</v>
       </c>
       <c r="C41" t="n">
-        <v>1171.826284085129</v>
+        <v>1916.967513458884</v>
       </c>
       <c r="D41" t="n">
-        <v>748.533663270129</v>
+        <v>1493.674892643884</v>
       </c>
       <c r="E41" t="n">
-        <v>322.5567234179865</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F41" t="n">
-        <v>78.29612553792701</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="G41" t="n">
-        <v>78.29612553792701</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H41" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I41" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J41" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K41" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.921173157204</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M41" t="n">
-        <v>1976.83572668905</v>
+        <v>818.8259796696768</v>
       </c>
       <c r="N41" t="n">
-        <v>2613.576147241355</v>
+        <v>1787.740533201523</v>
       </c>
       <c r="O41" t="n">
-        <v>3458.720797392167</v>
+        <v>2632.885183352335</v>
       </c>
       <c r="P41" t="n">
-        <v>3458.720797392167</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="Q41" t="n">
-        <v>3914.80627689635</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R41" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S41" t="n">
-        <v>3810.438982769491</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T41" t="n">
-        <v>3589.513411814124</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U41" t="n">
-        <v>3589.513411814124</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V41" t="n">
-        <v>3232.023996940374</v>
+        <v>3557.316862022599</v>
       </c>
       <c r="W41" t="n">
-        <v>2835.632647240721</v>
+        <v>3160.925512322946</v>
       </c>
       <c r="X41" t="n">
-        <v>2423.912648408468</v>
+        <v>2749.205513490693</v>
       </c>
       <c r="Y41" t="n">
-        <v>2018.575378363359</v>
+        <v>2343.868243445584</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>131.6722187756174</v>
       </c>
       <c r="H42" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I42" t="n">
-        <v>78.29612553792701</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J42" t="n">
-        <v>78.29612553792701</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K42" t="n">
-        <v>78.29612553792701</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="L42" t="n">
-        <v>78.29612553792701</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="M42" t="n">
-        <v>1047.210679069774</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="N42" t="n">
-        <v>1886.983756118437</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="O42" t="n">
-        <v>1886.983756118437</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="P42" t="n">
-        <v>1886.983756118437</v>
+        <v>1340.818969170954</v>
       </c>
       <c r="Q42" t="n">
-        <v>1886.983756118437</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R42" t="n">
         <v>1886.983756118437</v>
@@ -7557,16 +7557,16 @@
         <v>250.1578997633666</v>
       </c>
       <c r="F43" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G43" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H43" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I43" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J43" t="n">
         <v>135.787453762085</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2481.798038938885</v>
+        <v>2516.694910195414</v>
       </c>
       <c r="C44" t="n">
-        <v>2054.897308952186</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D44" t="n">
-        <v>1631.604688137186</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.627748285043</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5035664744436</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G44" t="n">
-        <v>376.1645040638922</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H44" t="n">
-        <v>78.29612553792701</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I44" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J44" t="n">
-        <v>78.29612553792701</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K44" t="n">
-        <v>793.804433513426</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L44" t="n">
-        <v>1723.429481132703</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M44" t="n">
-        <v>2692.344034664549</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="N44" t="n">
-        <v>3661.258588196396</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="O44" t="n">
-        <v>3914.80627689635</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P44" t="n">
-        <v>3914.80627689635</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q44" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R44" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S44" t="n">
-        <v>3914.80627689635</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T44" t="n">
-        <v>3914.80627689635</v>
+        <v>3693.880705940982</v>
       </c>
       <c r="U44" t="n">
-        <v>3914.80627689635</v>
+        <v>3435.525796537395</v>
       </c>
       <c r="V44" t="n">
-        <v>3557.3168620226</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="W44" t="n">
-        <v>3160.925512322947</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="X44" t="n">
-        <v>3160.925512322947</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="Y44" t="n">
-        <v>2755.588242277837</v>
+        <v>2936.543274486944</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>131.6722187756174</v>
       </c>
       <c r="H45" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I45" t="n">
-        <v>78.29612553792701</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J45" t="n">
-        <v>349.9936148175181</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K45" t="n">
-        <v>349.9936148175181</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="L45" t="n">
-        <v>349.9936148175181</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="M45" t="n">
-        <v>349.9936148175181</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="N45" t="n">
-        <v>349.9936148175181</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="O45" t="n">
-        <v>1170.786039079939</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="P45" t="n">
-        <v>1886.983756118437</v>
+        <v>1340.818969170954</v>
       </c>
       <c r="Q45" t="n">
-        <v>1886.983756118437</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R45" t="n">
         <v>1886.983756118437</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>410.7613010908414</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="C46" t="n">
-        <v>410.7613010908414</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="D46" t="n">
-        <v>410.7613010908414</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="E46" t="n">
-        <v>244.5530952436949</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="F46" t="n">
-        <v>244.5530952436949</v>
+        <v>177.5520301749782</v>
       </c>
       <c r="G46" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H46" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I46" t="n">
-        <v>78.29612553792701</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J46" t="n">
         <v>135.787453762085</v>
@@ -7848,10 +7848,10 @@
         <v>1008.486437976936</v>
       </c>
       <c r="X46" t="n">
-        <v>827.2700381131649</v>
+        <v>765.9225414227413</v>
       </c>
       <c r="Y46" t="n">
-        <v>600.9272698029069</v>
+        <v>539.5797731124834</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>571.0335849150666</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,22 +8057,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>379.7269667620471</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.324593627922</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378162</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>794.765553294346</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>294.1146885821051</v>
       </c>
       <c r="P5" t="n">
         <v>753.0089771212694</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P6" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8455,7 +8455,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
         <v>977.3272420480539</v>
@@ -8464,16 +8464,16 @@
         <v>1016.132832123519</v>
       </c>
       <c r="N8" t="n">
-        <v>1015.981192058534</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>300.8017851313028</v>
+        <v>96.07528619409365</v>
       </c>
       <c r="P8" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8534,22 +8534,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>274.3212993206172</v>
       </c>
       <c r="M9" t="n">
-        <v>1001.798349736416</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O9" t="n">
-        <v>147.9954856920859</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>794.765553294346</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>95.96394967251557</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8771,28 +8771,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>596.3288117334945</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O12" t="n">
-        <v>172.957937812503</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>387.0566030245323</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1015.981192058534</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,10 +8947,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>195.5116167824852</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>871.3524138948159</v>
+        <v>677.1461373703553</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.044597437629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>124.3756766890872</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P18" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>124.3756766890872</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9722,10 +9722,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>693.8194039897608</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9737,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.60175145678</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>356.8654072451563</v>
       </c>
       <c r="P26" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>659.3662058264945</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>855.4509062314398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10834,7 +10834,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>924.1790155406089</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>1016.132832123519</v>
+        <v>785.4412165678659</v>
       </c>
       <c r="N41" t="n">
-        <v>680.4517648064711</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1001.798349736416</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>869.5986615960295</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,19 +11305,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1015.981192058534</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>293.4997358206246</v>
+        <v>708.510735401115</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>852.2551465529501</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.814715328144</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>112.7863719693843</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.98949189919252</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>13.55037112485869</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>257.310683446277</v>
+        <v>388.9120438896857</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23551,7 +23551,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.7847827380281</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.1362268027146</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>97.36294473060303</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>82.03427119925784</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>44.20464122293447</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24849,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>118.557719078891</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>111.2754338578741</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.52994056050399</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>241.1919897557583</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>118.5577190788902</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>136.5504975383686</v>
       </c>
       <c r="F41" t="n">
-        <v>179.0549480912348</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>144.5975793430524</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>261.2057212397251</v>
       </c>
     </row>
     <row r="45">
@@ -26031,13 +26031,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>66.33105441802951</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>60.73402172351928</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551682.7656246759</v>
+        <v>551682.7656246757</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660651.0770060484</v>
+        <v>660651.0770060483</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660651.0770060485</v>
+        <v>660651.0770060484</v>
       </c>
     </row>
     <row r="14">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349465.6008066977</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="C2" t="n">
-        <v>349465.600806698</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="D2" t="n">
-        <v>349465.6008066979</v>
+        <v>349465.6008066981</v>
       </c>
       <c r="E2" t="n">
+        <v>281598.8764624101</v>
+      </c>
+      <c r="F2" t="n">
         <v>281598.8764624104</v>
       </c>
-      <c r="F2" t="n">
-        <v>281598.8764624102</v>
-      </c>
       <c r="G2" t="n">
-        <v>337218.2418824683</v>
+        <v>337218.2418824685</v>
       </c>
       <c r="H2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="I2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="J2" t="n">
-        <v>337218.2418824686</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="K2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="L2" t="n">
         <v>337218.2418824685</v>
@@ -26352,7 +26352,7 @@
         <v>337218.2418824683</v>
       </c>
       <c r="O2" t="n">
-        <v>281598.8764624102</v>
+        <v>281598.8764624103</v>
       </c>
       <c r="P2" t="n">
         <v>281598.8764624103</v>
@@ -26368,7 +26368,7 @@
         <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>136488.8862029677</v>
+        <v>136488.8862029676</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82248.07044717236</v>
+        <v>82248.0704471725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>108731.2256621308</v>
+        <v>108731.2256621307</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
-        <v>77169.92730939163</v>
+        <v>77169.92730939167</v>
       </c>
       <c r="D4" t="n">
-        <v>77169.9273093916</v>
+        <v>77169.92730939164</v>
       </c>
       <c r="E4" t="n">
         <v>12609.7743387567</v>
@@ -26435,31 +26435,31 @@
         <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>12609.77433875671</v>
+        <v>12609.7743387567</v>
       </c>
       <c r="P4" t="n">
-        <v>12609.77433875671</v>
+        <v>12609.7743387567</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>93132.65540882453</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="D5" t="n">
-        <v>93132.65540882453</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="E5" t="n">
-        <v>59505.05540882453</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="F5" t="n">
-        <v>59505.05540882453</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>59505.05540882453</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="P5" t="n">
-        <v>59505.05540882453</v>
+        <v>59505.0554088245</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52515.79621448176</v>
+        <v>-52515.79621448167</v>
       </c>
       <c r="C6" t="n">
         <v>42674.1318855141</v>
       </c>
       <c r="D6" t="n">
-        <v>179163.0180884817</v>
+        <v>179163.0180884819</v>
       </c>
       <c r="E6" t="n">
-        <v>209484.0467148292</v>
+        <v>209201.2686967277</v>
       </c>
       <c r="F6" t="n">
-        <v>209484.046714829</v>
+        <v>209201.268696728</v>
       </c>
       <c r="G6" t="n">
-        <v>162103.9355889389</v>
+        <v>162052.9049267545</v>
       </c>
       <c r="H6" t="n">
-        <v>244352.0060361114</v>
+        <v>244300.9753739271</v>
       </c>
       <c r="I6" t="n">
-        <v>244352.0060361114</v>
+        <v>244300.9753739269</v>
       </c>
       <c r="J6" t="n">
-        <v>98818.33610129499</v>
+        <v>98767.30543911048</v>
       </c>
       <c r="K6" t="n">
-        <v>135620.7803739806</v>
+        <v>135569.7497117963</v>
       </c>
       <c r="L6" t="n">
-        <v>244352.0060361114</v>
+        <v>244300.975373927</v>
       </c>
       <c r="M6" t="n">
-        <v>244352.0060361113</v>
+        <v>244300.975373927</v>
       </c>
       <c r="N6" t="n">
-        <v>244352.0060361112</v>
+        <v>244300.9753739269</v>
       </c>
       <c r="O6" t="n">
-        <v>209484.046714829</v>
+        <v>209201.2686967279</v>
       </c>
       <c r="P6" t="n">
-        <v>209484.0467148291</v>
+        <v>209201.2686967279</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>978.7015692240876</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="D4" t="n">
-        <v>978.7015692240876</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="E4" t="n">
-        <v>978.7015692240876</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="F4" t="n">
-        <v>978.7015692240876</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>978.7015692240876</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="P4" t="n">
-        <v>978.7015692240876</v>
+        <v>978.7015692240873</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>422.4737561084936</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>300.082348348769</v>
+        <v>300.0823483487695</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084937</v>
+        <v>422.4737561084932</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084936</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>300.082348348769</v>
+        <v>300.0823483487695</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>57.75377325007469</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>338.9673024934253</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>150.0045900020168</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -27605,7 +27605,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>59.37454630891003</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.719783906855582</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>6.719783906856208</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>106.2105945228214</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27791,10 +27791,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.279441954814672</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>69.66988273119722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>331.7983590016416</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>357.2118800478176</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>556.227813115594</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>756.4535108617231</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>256.723729226081</v>
       </c>
       <c r="P5" t="n">
         <v>715.433615311038</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P6" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>978.7015692240876</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N8" t="n">
-        <v>978.7015692240876</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>263.4108257752787</v>
+        <v>58.68432683806954</v>
       </c>
       <c r="P8" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>251.8062126063877</v>
       </c>
       <c r="M9" t="n">
-        <v>978.7015692240876</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O9" t="n">
-        <v>124.8235959698636</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>756.4535108617231</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>58.68432683806954</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35491,28 +35491,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>573.8137250192649</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O12" t="n">
-        <v>149.7860480902807</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>348.7445605919093</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>978.7015692240876</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>978.7015692240876</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,10 +35667,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>159.3869421778872</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>848.2556333824879</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="N15" t="n">
-        <v>978.7015692240876</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>86.8003148788559</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P18" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>86.8003148788559</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>163.8547131678015</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>319.4744478891323</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>636.2694253141665</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>818.1712833969938</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>886.8993927061629</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>978.7015692240876</v>
+        <v>748.0099536684342</v>
       </c>
       <c r="N41" t="n">
-        <v>643.1721419720251</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>978.7015692240876</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>848.2556333824879</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,19 +38025,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>978.7015692240876</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>978.7015692240876</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>256.1087764646005</v>
+        <v>671.1197760450909</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>829.0832568307279</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
